--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,6 +35,74 @@
   </si>
   <si>
     <t>道具2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大叠加数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是道具1号的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是道具2号的说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,12 +132,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,49 +462,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>65535</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>65535</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>道具1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,11 +90,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个是道具1号的说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是道具2号的说明</t>
+    <t>金疮药（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后恢复10%血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用后回到最近一个主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具的编号，最大为65535
+1000-1999，战士武器
+2000-2999，道士武器
+3000-3999，法师武器
+11000-11999，护腕
+12000-12999，衣服
+13000-13999，裤子
+14000-14999，项链
+15000-15999，戒指
+16000-16999，靴子
+20000-20999，药剂类道具
+21000-21999，卷轴类道具
+22000-22999，强化类道具
+30000-39999，礼包类道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\GitLab\Unity\shen1\Assets\Textures\ItemIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-200），小于该字段数值（等于时可用），则道具无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0-200)，大于该字段数字（等于时可用），则道具无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-16个字符（最多8个汉字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128个字符（最多64个汉字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-5），0=白，1=蓝，2=黄，3=绿，4=紫，5=赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1），0=不可，1=可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-65535），尽量按照99,999,9999三种最大来配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）单位是1银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格=价格/5，部分道具价格可以单独配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255），方便程序处理同类道具效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-3），0=全职业，1=战士，2=道士，3=法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-2），0=不绑定，1=获得后绑定，2=使用后绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-2），0=无耐久，1=使用次数，2=时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）单位是秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295），耐久显示=1时是次数，耐久显示=2时是秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却类型不同，冷却时间不占用公共冷却，该字段手游中不会大范围使用
+1=药剂冷却
+2=回城卷冷却</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +218,21 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -158,9 +262,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,14 +584,14 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -491,69 +610,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20000</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -562,27 +681,55 @@
         <v>65535</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>999</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <f>Q2/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
+        <v>21000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>851</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -591,10 +738,38 @@
         <v>65535</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>999</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <f>Q3/5</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -606,16 +781,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="231" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,150 @@
   <si>
     <t>【说明】
 使用后回到最近一个主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\GitLab\Unity\shen1\Assets\Textures\ItemIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-200），小于该字段数值（等于时可用），则道具无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0-200)，大于该字段数字（等于时可用），则道具无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-16个字符（最多8个汉字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128个字符（最多64个汉字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-5），0=白，1=蓝，2=黄，3=绿，4=紫，5=赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1），0=不可，1=可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-65535），尽量按照99,999,9999三种最大来配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）单位是1银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格=价格/5，部分道具价格可以单独配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255），方便程序处理同类道具效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-3），0=全职业，1=战士，2=道士，3=法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-2），0=不绑定，1=获得后绑定，2=使用后绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-2），0=无耐久，1=使用次数，2=时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）单位是秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295），耐久显示=1时是次数，耐久显示=2时是秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却类型不同，冷却时间不占用公共冷却，该字段手游中不会大范围使用
+1=药剂冷却
+2=回城卷冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后恢复20%血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后恢复30%血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士武器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+战士用的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士武器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师武器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+道士用的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+法师用的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+装备中的1件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,77 +265,8 @@
 20000-20999，药剂类道具
 21000-21999，卷轴类道具
 22000-22999，强化类道具
+23000-23999，任务类道具
 30000-39999，礼包类道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\GitLab\Unity\shen1\Assets\Textures\ItemIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-200），小于该字段数值（等于时可用），则道具无法使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0-200)，大于该字段数字（等于时可用），则道具无法使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-16个字符（最多8个汉字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128个字符（最多64个汉字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-5），0=白，1=蓝，2=黄，3=绿，4=紫，5=赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-1），0=不可，1=可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-65535），尽量按照99,999,9999三种最大来配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-4294967295）单位是1银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出价格=价格/5，部分道具价格可以单独配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-255），方便程序处理同类道具效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-3），0=全职业，1=战士，2=道士，3=法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-2），0=不绑定，1=获得后绑定，2=使用后绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-2），0=无耐久，1=使用次数，2=时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-4294967295）单位是秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0-4294967295），耐久显示=1时是次数，耐久显示=2时是秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却类型不同，冷却时间不占用公共冷却，该字段手游中不会大范围使用
-1=药剂冷却
-2=回城卷冷却</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,13 +735,13 @@
     </row>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -687,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -702,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -717,19 +792,19 @@
     </row>
     <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>851</v>
+        <v>559</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -744,31 +819,658 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R10" si="0">Q3/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>559</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>65535</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>11000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>559</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>65535</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>12000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>559</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>65535</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>13000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>559</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>65535</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>14000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>559</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>65535</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>15000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>559</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>65535</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>16000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>559</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>65535</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>559</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>65535</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>999</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f>Q11/5</f>
         <v>2</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>559</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>65535</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R13" si="1">Q12/5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>559</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>65535</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>999</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>21000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>851</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>65535</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="Q14">
         <v>100</v>
       </c>
-      <c r="R3">
-        <f>Q3/5</f>
+      <c r="R14">
+        <f>Q14/5</f>
         <v>20</v>
       </c>
     </row>
@@ -783,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -794,12 +1496,12 @@
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="231" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -807,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -815,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -823,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -831,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -839,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -847,7 +1549,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -855,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -863,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -871,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -879,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -887,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -895,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -903,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
@@ -911,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -919,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -927,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -935,7 +1637,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -269,12 +269,20 @@
 30000-39999，礼包类道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,6 +363,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +453,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -479,7 +487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,20 +662,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
@@ -677,7 +684,7 @@
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +697,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -733,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="27">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -746,8 +753,8 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>559</v>
+      <c r="E2" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -790,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="27">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -803,8 +810,8 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>559</v>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -847,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="27">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -860,8 +867,8 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>559</v>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -904,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="27">
       <c r="A5">
         <v>11000</v>
       </c>
@@ -917,8 +924,8 @@
       <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>559</v>
+      <c r="E5" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -961,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="27">
       <c r="A6">
         <v>12000</v>
       </c>
@@ -974,8 +981,8 @@
       <c r="D6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>559</v>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1018,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="27">
       <c r="A7">
         <v>13000</v>
       </c>
@@ -1031,8 +1038,8 @@
       <c r="D7">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>559</v>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1075,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="27">
       <c r="A8">
         <v>14000</v>
       </c>
@@ -1088,8 +1095,8 @@
       <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>559</v>
+      <c r="E8" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1132,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="27">
       <c r="A9">
         <v>15000</v>
       </c>
@@ -1145,8 +1152,8 @@
       <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>559</v>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1189,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="27">
       <c r="A10">
         <v>16000</v>
       </c>
@@ -1202,8 +1209,8 @@
       <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>559</v>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1246,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="27">
       <c r="A11">
         <v>20000</v>
       </c>
@@ -1259,8 +1266,8 @@
       <c r="D11">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>559</v>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1303,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="27">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -1316,8 +1323,8 @@
       <c r="D12">
         <v>31</v>
       </c>
-      <c r="E12">
-        <v>559</v>
+      <c r="E12" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F12">
         <v>21</v>
@@ -1360,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="27">
       <c r="A13">
         <v>20002</v>
       </c>
@@ -1373,8 +1380,8 @@
       <c r="D13">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>559</v>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F13">
         <v>41</v>
@@ -1417,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="27">
       <c r="A14">
         <v>21000</v>
       </c>
@@ -1430,8 +1437,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>851</v>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1482,21 +1489,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="247.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="33">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="33">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="33">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="66">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1648,12 +1655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,6 +364,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -663,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -679,12 +680,11 @@
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,35 +712,32 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -768,9 +765,6 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
@@ -781,23 +775,20 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <f>Q2/5</f>
+        <f>P2/5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -825,9 +816,6 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -838,23 +826,20 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R10" si="0">Q3/5</f>
+        <f t="shared" ref="Q3:Q10" si="0">P3/5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="27">
+    <row r="4" spans="1:17" ht="27">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -882,9 +867,6 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
@@ -895,23 +877,20 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27">
+    <row r="5" spans="1:17" ht="27">
       <c r="A5">
         <v>11000</v>
       </c>
@@ -939,9 +918,6 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -952,23 +928,20 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6">
         <v>12000</v>
       </c>
@@ -996,9 +969,6 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -1009,23 +979,20 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="27">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7">
         <v>13000</v>
       </c>
@@ -1053,9 +1020,6 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -1066,23 +1030,20 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8">
         <v>14000</v>
       </c>
@@ -1110,9 +1071,6 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -1123,23 +1081,20 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="27">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9">
         <v>15000</v>
       </c>
@@ -1167,9 +1122,6 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -1180,23 +1132,20 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10">
         <v>16000</v>
       </c>
@@ -1224,9 +1173,6 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
@@ -1237,23 +1183,20 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="27">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11">
         <v>20000</v>
       </c>
@@ -1282,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K11">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1297,20 +1240,17 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <f>Q11/5</f>
+        <f>P11/5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="27">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -1339,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K12">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1354,20 +1294,17 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="Q12">
-        <v>30</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:R13" si="1">Q12/5</f>
+        <f t="shared" ref="Q12:Q13" si="1">P12/5</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="27">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13">
         <v>20002</v>
       </c>
@@ -1396,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K13">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1411,20 +1348,17 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="Q13">
-        <v>90</v>
-      </c>
-      <c r="R13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="27">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14">
         <v>21000</v>
       </c>
@@ -1453,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K14">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1465,19 +1399,16 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="P14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q14">
-        <v>100</v>
-      </c>
-      <c r="R14">
-        <f>Q14/5</f>
+        <f>P14/5</f>
         <v>20</v>
       </c>
     </row>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0-255），方便程序处理同类道具效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（0-3），0=全职业，1=战士，2=道士，3=法师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +271,11 @@
   </si>
   <si>
     <t>0851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-255），方便程序处理同类道具效果
+[100,255]为各种道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +668,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,10 +692,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -709,7 +710,7 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -742,27 +743,21 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>65535</v>
-      </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
@@ -793,27 +788,21 @@
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>65535</v>
-      </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
@@ -844,27 +833,21 @@
         <v>3000</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>65535</v>
-      </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
@@ -895,27 +878,21 @@
         <v>11000</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>65535</v>
-      </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
@@ -946,27 +923,21 @@
         <v>12000</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>65535</v>
-      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
@@ -997,27 +968,21 @@
         <v>13000</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>65535</v>
-      </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
@@ -1048,27 +1013,21 @@
         <v>14000</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>65535</v>
-      </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
@@ -1099,27 +1058,21 @@
         <v>15000</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>65535</v>
-      </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
@@ -1150,27 +1103,21 @@
         <v>16000</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>65535</v>
-      </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
@@ -1207,21 +1154,15 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>65535</v>
-      </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
@@ -1255,27 +1196,21 @@
         <v>20001</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>21</v>
       </c>
-      <c r="G12">
-        <v>65535</v>
-      </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
@@ -1309,27 +1244,21 @@
         <v>20002</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <v>41</v>
       </c>
-      <c r="G13">
-        <v>65535</v>
-      </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
@@ -1369,21 +1298,15 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>65535</v>
-      </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
@@ -1423,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1439,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1458,12 +1381,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="33">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1503,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1527,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33">
@@ -1535,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1543,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="66">
@@ -1551,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1559,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -701,7 +701,7 @@
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -754,11 +754,11 @@
       <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="H2">
         <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -799,11 +799,11 @@
       <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="H3">
         <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -844,11 +844,11 @@
       <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="H4">
         <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -889,9 +889,6 @@
       <c r="E5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -934,9 +931,6 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -979,9 +973,6 @@
       <c r="E7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1024,9 +1015,6 @@
       <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1069,9 +1057,6 @@
       <c r="E9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -1114,9 +1099,6 @@
       <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -1159,9 +1141,6 @@
       <c r="E11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1302,9 +1281,6 @@
       </c>
       <c r="E14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="字段说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,16 +274,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>靴子</t>
+  </si>
+  <si>
+    <t>药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（0-255），方便程序处理同类道具效果
-[100,255]为各种道具</t>
+[100,255]为各种道具
+该字段文本显示，在本表格Sheet2中配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,6 +405,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,6 +417,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -423,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +500,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,6 +535,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,14 +711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -685,7 +732,7 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -783,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -828,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -873,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>11000</v>
       </c>
@@ -915,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12000</v>
       </c>
@@ -957,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13000</v>
       </c>
@@ -999,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14000</v>
       </c>
@@ -1041,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>15000</v>
       </c>
@@ -1083,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16000</v>
       </c>
@@ -1125,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20000</v>
       </c>
@@ -1170,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -1218,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20002</v>
       </c>
@@ -1266,7 +1313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>21000</v>
       </c>
@@ -1319,21 +1366,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>101</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>102</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5">
+    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1357,15 +1500,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33">
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33">
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1421,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33">
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66">
+    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1461,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1482,17 +1625,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -321,8 +321,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,10 +500,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +534,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -732,7 +730,7 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -830,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -841,7 +839,7 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>57</v>
@@ -875,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="27">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -886,7 +884,7 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>56</v>
@@ -920,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="27">
       <c r="A5">
         <v>11000</v>
       </c>
@@ -931,7 +929,7 @@
         <v>54</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>57</v>
@@ -962,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6">
         <v>12000</v>
       </c>
@@ -973,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>56</v>
@@ -1004,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7">
         <v>13000</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>54</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>57</v>
@@ -1046,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8">
         <v>14000</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>56</v>
@@ -1088,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9">
         <v>15000</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>57</v>
@@ -1130,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10">
         <v>16000</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -1172,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11">
         <v>20000</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1217,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>56</v>
@@ -1265,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13">
         <v>20002</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>41</v>
       </c>
       <c r="D13">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>57</v>
@@ -1313,7 +1311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14">
         <v>21000</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>56</v>
@@ -1366,16 +1364,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
@@ -1383,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1423,7 +1421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="9">
         <v>101</v>
       </c>
@@ -1447,7 +1445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="9">
         <v>102</v>
       </c>
@@ -1462,21 +1460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="247.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="49.5">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="33">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="33">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="33">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="66">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,55 +274,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护腕</t>
-  </si>
-  <si>
-    <t>衣服</t>
-  </si>
-  <si>
-    <t>裤子</t>
-  </si>
-  <si>
-    <t>项链</t>
-  </si>
-  <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>靴子</t>
-  </si>
-  <si>
-    <t>药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（0-255），方便程序处理同类道具效果
 [100,255]为各种道具
 该字段文本显示，在本表格Sheet2中配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>类型名称</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
+    <t>是否需要回收</t>
+  </si>
+  <si>
+    <t>类型说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器[战士]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器[道士]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器[法师]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命药剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升装备属性类道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务道具</t>
+  </si>
+  <si>
+    <t>任务所需的道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动、礼包类道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +411,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,10 +446,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,12 +470,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -712,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1365,97 +1433,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="10"/>
+    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9">
+      <c r="C1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9">
+      <c r="B3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9">
+      <c r="B4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="10">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9">
-        <v>101</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9">
-        <v>102</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>68</v>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1503,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1439,7 +1439,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1477,7 +1477,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="10">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="10">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,20 +192,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士武器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【说明】
 战士用的武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道士武器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师武器1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,12 +358,33 @@
     <t>活动、礼包类道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>火尖枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云中扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip037</t>
+  </si>
+  <si>
+    <t>equip015</t>
+  </si>
+  <si>
+    <t>equip019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +423,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -536,7 +546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,9 +578,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,6 +613,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,20 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
@@ -798,7 +810,7 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -851,21 +863,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -896,21 +908,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -941,21 +953,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -986,21 +998,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>11000</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1028,21 +1040,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>12000</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1070,21 +1082,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13000</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1112,21 +1124,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14000</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1154,21 +1166,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>15000</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1196,21 +1208,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>16000</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1238,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20000</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1283,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20001</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>21</v>
@@ -1331,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20002</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>41</v>
@@ -1379,7 +1391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>21000</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1432,17 +1444,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
@@ -1452,30 +1464,30 @@
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
@@ -1483,15 +1495,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1500,15 +1512,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -1517,15 +1529,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -1534,15 +1546,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -1551,15 +1563,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -1568,15 +1580,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
@@ -1585,15 +1597,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
@@ -1602,15 +1614,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>16</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
@@ -1619,62 +1631,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>30</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1686,29 +1698,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5">
+    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1724,15 +1736,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5">
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33">
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33">
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66">
+    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25260" windowHeight="6030"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23256" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -204,35 +204,6 @@
   <si>
     <t>【说明】
 法师用的武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护腕1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裤子1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项链1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靴子1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-装备中的1件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,13 +342,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>兽角枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牙枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金凤枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诛龙剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫霜剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧灵剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三皇剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吟扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星月护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天残护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真龙护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铜护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铜甲</t>
+  </si>
+  <si>
+    <t>星月甲</t>
+  </si>
+  <si>
+    <t>白虎甲</t>
+  </si>
+  <si>
+    <t>真龙甲</t>
+  </si>
+  <si>
+    <t>天残甲</t>
+  </si>
+  <si>
+    <t>赤铜项链</t>
+  </si>
+  <si>
+    <t>星月项链</t>
+  </si>
+  <si>
+    <t>白虎项链</t>
+  </si>
+  <si>
+    <t>真龙项链</t>
+  </si>
+  <si>
+    <t>天残项链</t>
+  </si>
+  <si>
+    <t>赤铜戒指</t>
+  </si>
+  <si>
+    <t>星月戒指</t>
+  </si>
+  <si>
+    <t>白虎戒指</t>
+  </si>
+  <si>
+    <t>真龙戒指</t>
+  </si>
+  <si>
+    <t>天残戒指</t>
+  </si>
+  <si>
+    <t>赤铜靴</t>
+  </si>
+  <si>
+    <t>星月靴</t>
+  </si>
+  <si>
+    <t>白虎靴</t>
+  </si>
+  <si>
+    <t>真龙靴</t>
+  </si>
+  <si>
+    <t>天残靴</t>
+  </si>
+  <si>
+    <t>赤铜裤</t>
+  </si>
+  <si>
+    <t>星月裤</t>
+  </si>
+  <si>
+    <t>白虎裤</t>
+  </si>
+  <si>
+    <t>真龙裤</t>
+  </si>
+  <si>
+    <t>天残裤</t>
+  </si>
+  <si>
+    <t>【说明】
+护腕</t>
+  </si>
+  <si>
+    <t>【说明】
+护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>equip037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equip015</t>
-  </si>
-  <si>
-    <t>equip019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip065</t>
+  </si>
+  <si>
+    <t>equip066</t>
+  </si>
+  <si>
+    <t>equip067</t>
+  </si>
+  <si>
+    <t>equip068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip070</t>
+  </si>
+  <si>
+    <t>equip071</t>
+  </si>
+  <si>
+    <t>equip072</t>
   </si>
 </sst>
 </file>
@@ -433,7 +726,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +736,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,6 +784,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,7 +804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,7 +881,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,27 +1090,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,12 +1163,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -877,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -908,531 +1208,2079 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <f>P3/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <f>P4/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <f>P5/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <f>P6/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2000</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q42" si="0">P7/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q9" si="1">P8/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="2">P10/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11" si="3">P11/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3000</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q10" si="0">P3/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3000</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q14" si="4">P13/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3003</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
+      <c r="E15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15" si="5">P15/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="6">P16/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>11000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
+      <c r="E18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q19" si="7">P18/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20" si="8">P20/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="9">P21/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>12000</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:Q24" si="10">P23/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25" si="11">P25/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26" si="12">P26/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13000</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13001</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q29" si="13">P28/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13002</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13003</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30" si="14">P30/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13004</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31" si="15">P31/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q34" si="16">P33/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35" si="17">P35/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ref="Q36" si="18">P36/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q39" si="19">P38/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15002</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40" si="20">P40/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15004</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41" si="21">P41/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43:Q44" si="22">P43/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>10</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45" si="23">P45/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46" si="24">P46/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>999</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <f>P47/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>13000</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F48">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>999</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+      <c r="P48">
+        <v>30</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48:Q49" si="25">P48/5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>14000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>15000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>16000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>20000</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F49">
+        <v>41</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>999</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>90</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
+    </row>
+    <row r="50" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21000</v>
+      </c>
+      <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>999</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <f>P11/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>20001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>999</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>30</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ref="Q12:Q13" si="1">P12/5</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>20002</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
-        <v>41</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>999</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>90</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>21000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>999</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
         <v>60</v>
       </c>
-      <c r="P14">
+      <c r="P50">
         <v>100</v>
       </c>
-      <c r="Q14">
-        <f>P14/5</f>
+      <c r="Q50">
+        <f>P50/5</f>
         <v>20</v>
       </c>
     </row>
@@ -1454,39 +3302,39 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -1495,15 +3343,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1512,15 +3360,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -1529,15 +3377,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -1546,15 +3394,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -1563,15 +3411,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -1580,15 +3428,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C8" s="10">
         <v>5</v>
@@ -1597,15 +3445,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10">
         <v>6</v>
@@ -1614,15 +3462,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>16</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10">
         <v>7</v>
@@ -1631,62 +3479,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>30</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1705,22 +3553,22 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="234" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +3576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1736,15 +3584,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +3600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1768,7 +3616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +3624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +3632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +3640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +3648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +3656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +3664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1824,7 +3672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +3680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +3688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +3696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="23256" windowHeight="6036"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -671,6 +671,18 @@
   </si>
   <si>
     <t>equip072</t>
+  </si>
+  <si>
+    <t>最低等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -804,7 +816,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -846,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -881,7 +893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1092,25 +1104,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" customWidth="1"/>
+    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>165</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1141,29 +1153,29 @@
       <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3000</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3001</v>
       </c>
@@ -1703,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3002</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3003</v>
       </c>
@@ -1793,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3004</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>11000</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>11001</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>11002</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>11003</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>11004</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>12000</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>12001</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>12002</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>12003</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>12004</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13000</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>13001</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>13002</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>13003</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>13004</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>14000</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>14001</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>14002</v>
       </c>
@@ -2594,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>14003</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>14004</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>15000</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>15001</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>15002</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>15003</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>15004</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>16000</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>16001</v>
       </c>
@@ -2972,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>16002</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>16003</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>16004</v>
       </c>
@@ -3098,7 +3110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>20000</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>20001</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>20002</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>21000</v>
       </c>
@@ -3299,20 +3311,20 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3346,7 +3358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>11</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>12</v>
       </c>
@@ -3414,7 +3426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>13</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>14</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>15</v>
       </c>
@@ -3465,7 +3477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>20</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>21</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>22</v>
       </c>
@@ -3515,7 +3527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>23</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>30</v>
       </c>
@@ -3553,14 +3565,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="47.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="234" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3592,7 +3604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3624,7 +3636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3632,7 +3644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3656,7 +3668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23256" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="173">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -683,6 +683,23 @@
   <si>
     <t>买入价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip075</t>
+  </si>
+  <si>
+    <t>equip076</t>
+  </si>
+  <si>
+    <t>equip077</t>
   </si>
 </sst>
 </file>
@@ -816,7 +833,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -858,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1104,25 +1121,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="7" customWidth="1"/>
     <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1265,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1310,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1355,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1400,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1490,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1535,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -1580,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -1625,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3000</v>
       </c>
@@ -1670,7 +1687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3001</v>
       </c>
@@ -1715,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3002</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3003</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3004</v>
       </c>
@@ -1850,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11000</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11001</v>
       </c>
@@ -1934,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11002</v>
       </c>
@@ -1976,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11003</v>
       </c>
@@ -2018,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11004</v>
       </c>
@@ -2060,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12000</v>
       </c>
@@ -2102,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12001</v>
       </c>
@@ -2144,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12002</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12003</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12004</v>
       </c>
@@ -2270,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13000</v>
       </c>
@@ -2284,7 +2301,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2312,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13001</v>
       </c>
@@ -2326,7 +2343,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2354,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13002</v>
       </c>
@@ -2368,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2396,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13003</v>
       </c>
@@ -2410,7 +2427,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2438,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13004</v>
       </c>
@@ -2452,7 +2469,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2480,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14000</v>
       </c>
@@ -2522,7 +2539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14001</v>
       </c>
@@ -2564,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14002</v>
       </c>
@@ -2606,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14003</v>
       </c>
@@ -2648,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14004</v>
       </c>
@@ -2690,7 +2707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15000</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15001</v>
       </c>
@@ -2774,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15002</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15003</v>
       </c>
@@ -2858,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15004</v>
       </c>
@@ -2900,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16000</v>
       </c>
@@ -2942,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16001</v>
       </c>
@@ -2984,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16002</v>
       </c>
@@ -3026,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16003</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16004</v>
       </c>
@@ -3110,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20000</v>
       </c>
@@ -3155,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20001</v>
       </c>
@@ -3203,7 +3220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20002</v>
       </c>
@@ -3251,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21000</v>
       </c>
@@ -3314,17 +3331,17 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="16.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
@@ -3341,7 +3358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3358,7 +3375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3375,7 +3392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3392,7 +3409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>11</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>12</v>
       </c>
@@ -3426,7 +3443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>13</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>14</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>15</v>
       </c>
@@ -3477,7 +3494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -3494,7 +3511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>20</v>
       </c>
@@ -3505,7 +3522,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>21</v>
       </c>
@@ -3516,7 +3533,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>22</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>23</v>
       </c>
@@ -3538,7 +3555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>30</v>
       </c>
@@ -3565,14 +3582,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="47.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="234" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3596,7 +3613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3652,7 +3669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3676,7 +3693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3692,7 +3709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -3700,7 +3717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -3708,7 +3725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -330,10 +330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火尖枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>云中扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,6 +696,10 @@
   </si>
   <si>
     <t>equip077</t>
+  </si>
+  <si>
+    <t>火尖枪1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1156,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>2000</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2002</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>2003</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
@@ -1611,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>3000</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>44</v>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
@@ -1701,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>3002</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
@@ -1746,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>3003</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>3004</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>44</v>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1872,16 +1872,16 @@
         <v>11000</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>11001</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>11</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>11002</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1998,16 +1998,16 @@
         <v>11003</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>11004</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>12000</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2124,16 +2124,16 @@
         <v>12001</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>12002</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>12003</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>12004</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>13000</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>13001</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>13002</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>13003</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>13004</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>14000</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32">
         <v>14</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2544,16 +2544,16 @@
         <v>14001</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>14</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2586,16 +2586,16 @@
         <v>14002</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34">
         <v>14</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2628,16 +2628,16 @@
         <v>14003</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35">
         <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>14004</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         <v>15000</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>15001</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2796,16 +2796,16 @@
         <v>15002</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>15</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>15003</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>15004</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <v>15</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>16000</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42">
         <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>16001</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43">
         <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>16002</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>16003</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>16004</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46">
         <v>0</v>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -739,6 +739,38 @@
   </si>
   <si>
     <t>靴子6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_052</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,14 +922,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1205,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,9 +1251,10 @@
     <col min="11" max="13" width="9.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1280,23 +1306,22 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="R1" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9">
@@ -1325,26 +1350,25 @@
         <v>10</v>
       </c>
       <c r="Q2" s="9">
-        <f>P2/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q2:Q4" si="0">P2/5</f>
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
-        <v>1001</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9">
@@ -1373,26 +1397,25 @@
         <v>10</v>
       </c>
       <c r="Q3" s="9">
-        <f>P3/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1002</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9">
@@ -1421,16 +1444,19 @@
         <v>10</v>
       </c>
       <c r="Q4" s="9">
-        <f>P4/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>42</v>
@@ -1439,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1472,13 +1498,16 @@
         <f>P5/5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="R5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>42</v>
@@ -1487,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1520,13 +1549,16 @@
         <f>P6/5</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>173</v>
+        <v>1002</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>42</v>
@@ -1535,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1565,25 +1597,28 @@
         <v>10</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" ref="Q7" si="0">P7/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f>P7/5</f>
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2000</v>
+        <v>1003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1591,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9">
@@ -1613,25 +1648,28 @@
         <v>10</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" ref="Q8:Q50" si="1">P8/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f>P8/5</f>
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1639,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9">
@@ -1661,25 +1699,28 @@
         <v>10</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" ref="Q9:Q10" si="2">P9/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f>P9/5</f>
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>1005</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1687,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9">
@@ -1709,16 +1750,19 @@
         <v>10</v>
       </c>
       <c r="Q10" s="9">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q10" si="1">P10/5</f>
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>43</v>
@@ -1727,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1757,16 +1801,19 @@
         <v>10</v>
       </c>
       <c r="Q11" s="9">
-        <f t="shared" ref="Q11" si="3">P11/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q11:Q53" si="2">P11/5</f>
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>43</v>
@@ -1775,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1805,16 +1852,19 @@
         <v>10</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" ref="Q12" si="4">P12/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q12:Q13" si="3">P12/5</f>
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>43</v>
@@ -1823,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1853,25 +1903,28 @@
         <v>10</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" ref="Q13" si="5">P13/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>3000</v>
+        <v>2003</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1879,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9">
@@ -1901,25 +1954,28 @@
         <v>10</v>
       </c>
       <c r="Q14" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q14" si="4">P14/5</f>
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1927,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9">
@@ -1949,25 +2005,28 @@
         <v>10</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" ref="Q15:Q16" si="6">P15/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q15" si="5">P15/5</f>
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>3002</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1975,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9">
@@ -1997,16 +2056,19 @@
         <v>10</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q16" si="6">P16/5</f>
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>44</v>
@@ -2015,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2045,25 +2107,28 @@
         <v>10</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" ref="Q17" si="7">P17/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="D18" s="9">
         <v>3</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2093,16 +2158,19 @@
         <v>10</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" ref="Q18" si="8">P18/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q18:Q19" si="7">P18/5</f>
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>44</v>
@@ -2111,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2141,32 +2209,37 @@
         <v>10</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" ref="Q19" si="9">P19/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>11000</v>
+        <v>3003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9">
         <v>0</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9">
         <v>1</v>
@@ -2187,32 +2260,37 @@
         <v>10</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q20" si="8">P20/5</f>
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>11001</v>
+        <v>3004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="D21" s="9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9">
+        <v>3</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9">
         <v>1</v>
@@ -2233,32 +2311,37 @@
         <v>10</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" ref="Q21:Q22" si="10">P21/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q21" si="9">P21/5</f>
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>11002</v>
+        <v>3005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D22" s="9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>3</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9">
         <v>1</v>
@@ -2279,16 +2362,19 @@
         <v>10</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q22" si="10">P22/5</f>
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>11003</v>
+        <v>11000</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>118</v>
@@ -2297,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2325,16 +2411,19 @@
         <v>10</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" ref="Q23" si="11">P23/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>118</v>
@@ -2343,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2371,25 +2460,28 @@
         <v>10</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" ref="Q24" si="12">P24/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q24:Q25" si="11">P24/5</f>
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
-        <v>11005</v>
+        <v>11002</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="9">
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2417,25 +2509,28 @@
         <v>10</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" ref="Q25" si="13">P25/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
-        <v>12000</v>
+        <v>11003</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2463,25 +2558,28 @@
         <v>10</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q26" si="12">P26/5</f>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
-        <v>12001</v>
+        <v>11004</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2509,25 +2607,28 @@
         <v>10</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q28" si="14">P27/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q27" si="13">P27/5</f>
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
-        <v>12002</v>
+        <v>11005</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2555,16 +2656,19 @@
         <v>10</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q28" si="14">P28/5</f>
+        <v>2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
-        <v>12003</v>
+        <v>12000</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>119</v>
@@ -2573,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2601,16 +2705,19 @@
         <v>10</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" ref="Q29" si="15">P29/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
-        <v>12004</v>
+        <v>12001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>119</v>
@@ -2619,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2647,16 +2754,19 @@
         <v>10</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" ref="Q30" si="16">P30/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q30:Q31" si="15">P30/5</f>
+        <v>2</v>
+      </c>
+      <c r="R30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
-        <v>12005</v>
+        <v>12002</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>119</v>
@@ -2665,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2693,25 +2803,28 @@
         <v>10</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" ref="Q31" si="17">P31/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
-        <v>13000</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>112</v>
+        <v>12003</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2739,25 +2852,28 @@
         <v>10</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q32" si="16">P32/5</f>
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <v>13001</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>113</v>
+        <v>12004</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D33" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2785,25 +2901,28 @@
         <v>10</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" ref="Q33:Q34" si="18">P33/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q33" si="17">P33/5</f>
+        <v>2</v>
+      </c>
+      <c r="R33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
-        <v>13002</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>114</v>
+        <v>12005</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2831,16 +2950,19 @@
         <v>10</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q34" si="18">P34/5</f>
+        <v>2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
-        <v>13003</v>
+        <v>13000</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>120</v>
@@ -2849,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -2877,16 +2999,19 @@
         <v>10</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" ref="Q35" si="19">P35/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
-        <v>13004</v>
+        <v>13001</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>120</v>
@@ -2895,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -2923,16 +3048,19 @@
         <v>10</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" ref="Q36" si="20">P36/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q36:Q37" si="19">P36/5</f>
+        <v>2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
-        <v>13005</v>
+        <v>13002</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>120</v>
@@ -2941,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2969,25 +3097,28 @@
         <v>10</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" ref="Q37" si="21">P37/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
-        <v>14000</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>97</v>
+        <v>13003</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3015,25 +3146,28 @@
         <v>10</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q38" si="20">P38/5</f>
+        <v>2</v>
+      </c>
+      <c r="R38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
-        <v>14001</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>98</v>
+        <v>13004</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -3061,25 +3195,28 @@
         <v>10</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" ref="Q39:Q40" si="22">P39/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q39" si="21">P39/5</f>
+        <v>2</v>
+      </c>
+      <c r="R39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
-        <v>14002</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>99</v>
+        <v>13005</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3107,16 +3244,19 @@
         <v>10</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q40" si="22">P40/5</f>
+        <v>2</v>
+      </c>
+      <c r="R40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
-        <v>14003</v>
+        <v>14000</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>121</v>
@@ -3125,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3153,16 +3293,19 @@
         <v>10</v>
       </c>
       <c r="Q41" s="9">
-        <f t="shared" ref="Q41" si="23">P41/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
-        <v>14004</v>
+        <v>14001</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>121</v>
@@ -3171,7 +3314,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3199,16 +3342,19 @@
         <v>10</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" ref="Q42" si="24">P42/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q42:Q43" si="23">P42/5</f>
+        <v>2</v>
+      </c>
+      <c r="R42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
-        <v>14005</v>
+        <v>14002</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>121</v>
@@ -3217,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -3245,25 +3391,28 @@
         <v>10</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" ref="Q43" si="25">P43/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="R43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
-        <v>15000</v>
+        <v>14003</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -3291,25 +3440,28 @@
         <v>10</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q44" si="24">P44/5</f>
+        <v>2</v>
+      </c>
+      <c r="R44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
-        <v>15001</v>
+        <v>14004</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3337,25 +3489,28 @@
         <v>10</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" ref="Q45:Q46" si="26">P45/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q45" si="25">P45/5</f>
+        <v>2</v>
+      </c>
+      <c r="R45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
-        <v>15002</v>
+        <v>14005</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3383,16 +3538,19 @@
         <v>10</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q46" si="26">P46/5</f>
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
-        <v>15003</v>
+        <v>15000</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>122</v>
@@ -3401,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3429,16 +3587,19 @@
         <v>10</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" ref="Q47" si="27">P47/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
-        <v>15004</v>
+        <v>15001</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>122</v>
@@ -3447,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -3475,16 +3636,19 @@
         <v>10</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" ref="Q48" si="28">P48/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q48:Q49" si="27">P48/5</f>
+        <v>2</v>
+      </c>
+      <c r="R48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
-        <v>15005</v>
+        <v>15002</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>122</v>
@@ -3493,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3521,25 +3685,28 @@
         <v>10</v>
       </c>
       <c r="Q49" s="9">
-        <f t="shared" ref="Q49" si="29">P49/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="R49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
-        <v>16000</v>
+        <v>15003</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -3567,25 +3734,28 @@
         <v>10</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q50" si="28">P50/5</f>
+        <v>2</v>
+      </c>
+      <c r="R50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
-        <v>16001</v>
+        <v>15004</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -3613,25 +3783,28 @@
         <v>10</v>
       </c>
       <c r="Q51" s="9">
-        <f t="shared" ref="Q51:Q52" si="30">P51/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q51" si="29">P51/5</f>
+        <v>2</v>
+      </c>
+      <c r="R51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
-        <v>16002</v>
+        <v>15005</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -3659,16 +3832,19 @@
         <v>10</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q52" si="30">P52/5</f>
+        <v>2</v>
+      </c>
+      <c r="R52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
-        <v>16003</v>
+        <v>16000</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>123</v>
@@ -3677,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -3705,16 +3881,19 @@
         <v>10</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" ref="Q53" si="31">P53/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
-        <v>16004</v>
+        <v>16001</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>123</v>
@@ -3723,7 +3902,7 @@
         <v>16</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -3751,16 +3930,19 @@
         <v>10</v>
       </c>
       <c r="Q54" s="9">
-        <f t="shared" ref="Q54" si="32">P54/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q54:Q55" si="31">P54/5</f>
+        <v>2</v>
+      </c>
+      <c r="R54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
-        <v>16005</v>
+        <v>16002</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>123</v>
@@ -3769,7 +3951,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -3797,25 +3979,28 @@
         <v>10</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" ref="Q55" si="33">P55/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="R55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
-        <v>20000</v>
+        <v>16003</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D56" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -3823,9 +4008,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="9">
-        <v>999</v>
-      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="9">
         <v>1</v>
       </c>
@@ -3836,46 +4019,45 @@
         <v>1</v>
       </c>
       <c r="N56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P56" s="9">
         <v>10</v>
       </c>
       <c r="Q56" s="9">
-        <f>P56/5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q56" si="32">P56/5</f>
+        <v>2</v>
+      </c>
+      <c r="R56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
-        <v>20001</v>
+        <v>16004</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="D57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="9">
-        <v>21</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
         <v>0</v>
       </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="9">
-        <v>999</v>
-      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="9">
         <v>1</v>
       </c>
@@ -3886,46 +4068,45 @@
         <v>1</v>
       </c>
       <c r="N57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P57" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" ref="Q57:Q58" si="34">P57/5</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="33" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Q57" si="33">P57/5</f>
+        <v>2</v>
+      </c>
+      <c r="R57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
-        <v>20002</v>
+        <v>16005</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D58" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="9">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9">
         <v>0</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="9">
-        <v>999</v>
-      </c>
+      <c r="J58" s="9"/>
       <c r="K58" s="9">
         <v>1</v>
       </c>
@@ -3936,34 +4117,37 @@
         <v>1</v>
       </c>
       <c r="N58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P58" s="9">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="Q58" si="34">P58/5</f>
+        <v>2</v>
+      </c>
+      <c r="R58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>20000</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="33" x14ac:dyDescent="0.35">
-      <c r="A59" s="9">
-        <v>21000</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="9">
         <v>20</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="9">
-        <v>21</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -3984,22 +4168,182 @@
         <v>1</v>
       </c>
       <c r="N59" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" s="9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="P59" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q59" s="9">
         <f>P59/5</f>
+        <v>2</v>
+      </c>
+      <c r="R59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>20001</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="9">
         <v>20</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="9">
+        <v>21</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9">
+        <v>999</v>
+      </c>
+      <c r="K60" s="9">
+        <v>1</v>
+      </c>
+      <c r="L60" s="9">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1</v>
+      </c>
+      <c r="N60" s="9">
+        <v>1</v>
+      </c>
+      <c r="O60" s="9">
+        <v>5</v>
+      </c>
+      <c r="P60" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="9">
+        <f t="shared" ref="Q60:Q61" si="35">P60/5</f>
+        <v>6</v>
+      </c>
+      <c r="R60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>20002</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="9">
+        <v>20</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="9">
+        <v>41</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9">
+        <v>999</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1</v>
+      </c>
+      <c r="L61" s="9">
+        <v>1</v>
+      </c>
+      <c r="M61" s="9">
+        <v>1</v>
+      </c>
+      <c r="N61" s="9">
+        <v>1</v>
+      </c>
+      <c r="O61" s="9">
+        <v>5</v>
+      </c>
+      <c r="P61" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q61" s="9">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="R61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A62" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="9">
+        <v>21</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9">
+        <v>999</v>
+      </c>
+      <c r="K62" s="9">
+        <v>1</v>
+      </c>
+      <c r="L62" s="9">
+        <v>1</v>
+      </c>
+      <c r="M62" s="9">
+        <v>1</v>
+      </c>
+      <c r="N62" s="9">
+        <v>2</v>
+      </c>
+      <c r="O62" s="9">
+        <v>60</v>
+      </c>
+      <c r="P62" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="9">
+        <f>P62/5</f>
+        <v>20</v>
+      </c>
+      <c r="R62" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
@@ -11,12 +11,12 @@
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -555,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip041</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,6 +767,14 @@
   </si>
   <si>
     <t>Npc_052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip042</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +948,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -986,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,7 +1237,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R62"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1271,10 +1275,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -1301,13 +1305,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1315,13 +1319,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9">
@@ -1354,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1362,13 +1368,15 @@
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9">
@@ -1401,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1409,13 +1417,15 @@
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9">
@@ -1448,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1465,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1499,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1516,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1550,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1558,7 +1568,7 @@
         <v>1002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>42</v>
@@ -1567,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1601,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1618,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1652,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1669,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1703,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1711,7 +1721,7 @@
         <v>1005</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>42</v>
@@ -1720,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1754,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1771,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1805,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1822,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1856,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1873,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1907,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1924,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1958,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1975,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2009,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2017,7 +2027,7 @@
         <v>2005</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>43</v>
@@ -2026,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2060,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2077,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2111,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2128,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2162,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2179,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2213,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2230,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2264,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2275,13 +2285,13 @@
         <v>79</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2315,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2323,7 +2333,7 @@
         <v>3005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>44</v>
@@ -2332,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2366,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2415,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2464,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2513,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2562,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2611,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2619,7 +2629,7 @@
         <v>11005</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>118</v>
@@ -2660,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2677,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2709,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2726,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2758,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2775,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2807,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2824,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2856,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2873,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2905,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2913,7 +2923,7 @@
         <v>12005</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>119</v>
@@ -2922,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2954,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2971,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -3003,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3020,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3052,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3069,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -3101,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3118,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3150,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3167,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -3199,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3207,7 +3217,7 @@
         <v>13005</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>120</v>
@@ -3216,7 +3226,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3248,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3265,7 +3275,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3297,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3314,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3346,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3363,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -3395,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3412,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -3444,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3461,7 +3471,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3493,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3501,7 +3511,7 @@
         <v>14005</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>121</v>
@@ -3510,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3542,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3559,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3591,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3608,7 +3618,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -3640,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3657,7 +3667,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3689,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3706,7 +3716,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -3738,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3755,7 +3765,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -3787,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3795,7 +3805,7 @@
         <v>15005</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>122</v>
@@ -3804,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -3836,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3885,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3934,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3983,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4032,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4081,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4089,7 +4099,7 @@
         <v>16005</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>123</v>
@@ -4130,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4181,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4234,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="R60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4287,7 +4297,7 @@
         <v>18</v>
       </c>
       <c r="R61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4338,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="R62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -754,28 +754,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Npc_050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc_051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc_053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc_052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip042</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equip042</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Models/Npc/Npc_052</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1236,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1360,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1375,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1409,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1424,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1458,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1475,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1509,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1560,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1611,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1662,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1713,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1764,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1815,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1866,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1917,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1968,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2019,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2070,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2121,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2172,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2223,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2274,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2325,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2376,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2425,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2474,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2523,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2572,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2621,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2670,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2719,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2768,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2817,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2866,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2915,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2964,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3013,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3062,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3111,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3160,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3209,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3258,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3307,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3356,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3405,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3454,7 +3453,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3503,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3552,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3601,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3650,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3699,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3748,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3797,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3846,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3895,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3944,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3993,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4042,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4091,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4140,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4191,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4244,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="R60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4297,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="R61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4348,7 +4347,7 @@
         <v>20</v>
       </c>
       <c r="R62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
@@ -11,12 +11,12 @@
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
     <sheet name="字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -775,6 +775,33 @@
   </si>
   <si>
     <t>Prefabs/Models/Npc/Npc_052</t>
+  </si>
+  <si>
+    <t>经验药（100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药（200%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药（400%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后10分钟打怪效率提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后10分钟打怪效率提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后10分钟打怪效率提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,7 +974,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -989,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,7 +1051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4301,19 +4328,19 @@
     </row>
     <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
-        <v>21000</v>
+        <v>20003</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="9">
         <v>20</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="9">
-        <v>21</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4334,19 +4361,176 @@
         <v>1</v>
       </c>
       <c r="N62" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" s="9">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="P62" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="9">
         <f>P62/5</f>
+        <v>2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>20004</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="9">
         <v>20</v>
       </c>
-      <c r="R62" t="s">
+      <c r="E63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="9">
+        <v>21</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9">
+        <v>999</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>1</v>
+      </c>
+      <c r="M63" s="9">
+        <v>1</v>
+      </c>
+      <c r="N63" s="9">
+        <v>1</v>
+      </c>
+      <c r="O63" s="9">
+        <v>5</v>
+      </c>
+      <c r="P63" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="9">
+        <f t="shared" ref="Q63:Q64" si="36">P63/5</f>
+        <v>6</v>
+      </c>
+      <c r="R63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A64" s="9">
+        <v>20005</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="9">
+        <v>20</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="9">
+        <v>41</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9">
+        <v>999</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
+      <c r="L64" s="9">
+        <v>1</v>
+      </c>
+      <c r="M64" s="9">
+        <v>1</v>
+      </c>
+      <c r="N64" s="9">
+        <v>1</v>
+      </c>
+      <c r="O64" s="9">
+        <v>5</v>
+      </c>
+      <c r="P64" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q64" s="9">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+      <c r="R64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="9">
+        <v>21</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9">
+        <v>999</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="9">
+        <v>1</v>
+      </c>
+      <c r="M65" s="9">
+        <v>1</v>
+      </c>
+      <c r="N65" s="9">
+        <v>2</v>
+      </c>
+      <c r="O65" s="9">
+        <v>60</v>
+      </c>
+      <c r="P65" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q65" s="9">
+        <f>P65/5</f>
+        <v>20</v>
+      </c>
+      <c r="R65" t="s">
         <v>191</v>
       </c>
     </row>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -802,6 +802,161 @@
     <t>【说明】
 使用之后10分钟打怪效率提升400%</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（超）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血池（神）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为50000点的血池
+2.每5秒恢复500点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为250000点的血池
+2.每5秒恢复1000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为1250000点的血池
+2.每5秒恢复2000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为6250000点的血池
+2.每5秒恢复4000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为30000000点的血池
+2.每5秒恢复6000点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击神符（大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御神符（小）</t>
+  </si>
+  <si>
+    <t>防御神符（中）</t>
+  </si>
+  <si>
+    <t>防御神符（大）</t>
+  </si>
+  <si>
+    <t>暴击神符（小）</t>
+  </si>
+  <si>
+    <t>暴击神符（中）</t>
+  </si>
+  <si>
+    <t>暴击神符（大）</t>
+  </si>
+  <si>
+    <t>闪避神符（小）</t>
+  </si>
+  <si>
+    <t>闪避神符（中）</t>
+  </si>
+  <si>
+    <t>闪避神符（大）</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升10%的物攻和魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升20%的物攻和魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升30%的物攻和魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升30%的防御和魔攻</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升10%的防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升20%的防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升30%的防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升10%的暴击</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升20%的暴击</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升30%的暴击</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升10%的闪避</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升20%的闪避</t>
+  </si>
+  <si>
+    <t>【说明】
+使用之后1分钟内，提升30%的闪避</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4331,10 +4486,10 @@
         <v>20003</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D62" s="9">
         <v>20</v>
@@ -4382,10 +4537,10 @@
         <v>20004</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="D63" s="9">
         <v>20</v>
@@ -4430,15 +4585,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>20005</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D64" s="9">
         <v>20</v>
@@ -4483,23 +4638,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
-        <v>21000</v>
+        <v>20006</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="9">
         <v>20</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="9">
-        <v>21</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="F65" s="9">
+        <v>41</v>
+      </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9">
         <v>0</v>
@@ -4518,19 +4675,998 @@
         <v>1</v>
       </c>
       <c r="N65" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" s="9">
+        <v>5</v>
+      </c>
+      <c r="P65" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q65" s="9">
+        <f t="shared" ref="Q65:Q76" si="37">P65/5</f>
+        <v>18</v>
+      </c>
+      <c r="R65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>20007</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="9">
+        <v>20</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="9">
+        <v>41</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9">
+        <v>999</v>
+      </c>
+      <c r="K66" s="9">
+        <v>1</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1</v>
+      </c>
+      <c r="M66" s="9">
+        <v>1</v>
+      </c>
+      <c r="N66" s="9">
+        <v>1</v>
+      </c>
+      <c r="O66" s="9">
+        <v>5</v>
+      </c>
+      <c r="P66" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q66" s="9">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="R66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>20008</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="9">
+        <v>20</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="9">
+        <v>41</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9">
+        <v>999</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+      <c r="M67" s="9">
+        <v>1</v>
+      </c>
+      <c r="N67" s="9">
+        <v>1</v>
+      </c>
+      <c r="O67" s="9">
+        <v>5</v>
+      </c>
+      <c r="P67" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q67" s="9">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="R67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="66" x14ac:dyDescent="0.35">
+      <c r="A68" s="9">
+        <v>20009</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="9">
+        <v>20</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="9">
+        <v>41</v>
+      </c>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9">
+        <v>999</v>
+      </c>
+      <c r="K68" s="9">
+        <v>1</v>
+      </c>
+      <c r="L68" s="9">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9">
+        <v>1</v>
+      </c>
+      <c r="N68" s="9">
+        <v>1</v>
+      </c>
+      <c r="O68" s="9">
+        <v>5</v>
+      </c>
+      <c r="P68" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q68" s="9">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="R68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>20010</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="9">
+        <v>20</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9">
+        <v>999</v>
+      </c>
+      <c r="K69" s="9">
+        <v>1</v>
+      </c>
+      <c r="L69" s="9">
+        <v>1</v>
+      </c>
+      <c r="M69" s="9">
+        <v>1</v>
+      </c>
+      <c r="N69" s="9">
+        <v>1</v>
+      </c>
+      <c r="O69" s="9">
+        <v>5</v>
+      </c>
+      <c r="P69" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="9">
+        <v>20011</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="9">
+        <v>20</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9">
+        <v>999</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" s="9">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9">
+        <v>1</v>
+      </c>
+      <c r="O70" s="9">
+        <v>5</v>
+      </c>
+      <c r="P70" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="9">
+        <v>20012</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="9">
+        <v>20</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9">
+        <v>999</v>
+      </c>
+      <c r="K71" s="9">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9">
+        <v>1</v>
+      </c>
+      <c r="M71" s="9">
+        <v>1</v>
+      </c>
+      <c r="N71" s="9">
+        <v>1</v>
+      </c>
+      <c r="O71" s="9">
+        <v>5</v>
+      </c>
+      <c r="P71" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>20013</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="9">
+        <v>20</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9">
+        <v>999</v>
+      </c>
+      <c r="K72" s="9">
+        <v>1</v>
+      </c>
+      <c r="L72" s="9">
+        <v>1</v>
+      </c>
+      <c r="M72" s="9">
+        <v>1</v>
+      </c>
+      <c r="N72" s="9">
+        <v>1</v>
+      </c>
+      <c r="O72" s="9">
+        <v>5</v>
+      </c>
+      <c r="P72" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A73" s="9">
+        <v>20014</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="9">
+        <v>20</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9">
+        <v>999</v>
+      </c>
+      <c r="K73" s="9">
+        <v>1</v>
+      </c>
+      <c r="L73" s="9">
+        <v>1</v>
+      </c>
+      <c r="M73" s="9">
+        <v>1</v>
+      </c>
+      <c r="N73" s="9">
+        <v>1</v>
+      </c>
+      <c r="O73" s="9">
+        <v>5</v>
+      </c>
+      <c r="P73" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A74" s="9">
+        <v>20015</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="9">
+        <v>20</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9">
+        <v>999</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+      <c r="L74" s="9">
+        <v>1</v>
+      </c>
+      <c r="M74" s="9">
+        <v>1</v>
+      </c>
+      <c r="N74" s="9">
+        <v>1</v>
+      </c>
+      <c r="O74" s="9">
+        <v>5</v>
+      </c>
+      <c r="P74" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>20016</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="9">
+        <v>20</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9">
+        <v>999</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1</v>
+      </c>
+      <c r="L75" s="9">
+        <v>1</v>
+      </c>
+      <c r="M75" s="9">
+        <v>1</v>
+      </c>
+      <c r="N75" s="9">
+        <v>1</v>
+      </c>
+      <c r="O75" s="9">
+        <v>5</v>
+      </c>
+      <c r="P75" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A76" s="9">
+        <v>20017</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="9">
+        <v>20</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9">
+        <v>999</v>
+      </c>
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" s="9">
+        <v>1</v>
+      </c>
+      <c r="M76" s="9">
+        <v>1</v>
+      </c>
+      <c r="N76" s="9">
+        <v>1</v>
+      </c>
+      <c r="O76" s="9">
+        <v>5</v>
+      </c>
+      <c r="P76" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="9">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="R76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A77" s="9">
+        <v>20018</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="9">
+        <v>20</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9">
+        <v>999</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" s="9">
+        <v>1</v>
+      </c>
+      <c r="M77" s="9">
+        <v>1</v>
+      </c>
+      <c r="N77" s="9">
+        <v>1</v>
+      </c>
+      <c r="O77" s="9">
+        <v>5</v>
+      </c>
+      <c r="P77" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="9">
+        <f t="shared" ref="Q77:Q79" si="38">P77/5</f>
+        <v>2</v>
+      </c>
+      <c r="R77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A78" s="9">
+        <v>20019</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="9">
+        <v>20</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9">
+        <v>999</v>
+      </c>
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+      <c r="L78" s="9">
+        <v>1</v>
+      </c>
+      <c r="M78" s="9">
+        <v>1</v>
+      </c>
+      <c r="N78" s="9">
+        <v>1</v>
+      </c>
+      <c r="O78" s="9">
+        <v>5</v>
+      </c>
+      <c r="P78" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="9">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="R78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A79" s="9">
+        <v>20020</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="9">
+        <v>20</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9">
+        <v>999</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1</v>
+      </c>
+      <c r="L79" s="9">
+        <v>1</v>
+      </c>
+      <c r="M79" s="9">
+        <v>1</v>
+      </c>
+      <c r="N79" s="9">
+        <v>1</v>
+      </c>
+      <c r="O79" s="9">
+        <v>5</v>
+      </c>
+      <c r="P79" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="9">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="R79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A80" s="9">
+        <v>20021</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="9">
+        <v>20</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9">
+        <v>999</v>
+      </c>
+      <c r="K80" s="9">
+        <v>1</v>
+      </c>
+      <c r="L80" s="9">
+        <v>1</v>
+      </c>
+      <c r="M80" s="9">
+        <v>1</v>
+      </c>
+      <c r="N80" s="9">
+        <v>1</v>
+      </c>
+      <c r="O80" s="9">
+        <v>5</v>
+      </c>
+      <c r="P80" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="9">
+        <f t="shared" ref="Q80" si="39">P80/5</f>
+        <v>2</v>
+      </c>
+      <c r="R80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A81" s="9">
+        <v>20100</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="9">
+        <v>20</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9">
+        <v>999</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="9">
+        <v>1</v>
+      </c>
+      <c r="M81" s="9">
+        <v>1</v>
+      </c>
+      <c r="N81" s="9">
+        <v>1</v>
+      </c>
+      <c r="O81" s="9">
+        <v>5</v>
+      </c>
+      <c r="P81" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="9">
+        <f>P81/5</f>
+        <v>2</v>
+      </c>
+      <c r="R81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A82" s="9">
+        <v>20101</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="9">
+        <v>20</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="9">
+        <v>21</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9">
+        <v>999</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="9">
+        <v>1</v>
+      </c>
+      <c r="M82" s="9">
+        <v>1</v>
+      </c>
+      <c r="N82" s="9">
+        <v>1</v>
+      </c>
+      <c r="O82" s="9">
+        <v>5</v>
+      </c>
+      <c r="P82" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q82" s="9">
+        <f t="shared" ref="Q82:Q83" si="40">P82/5</f>
+        <v>6</v>
+      </c>
+      <c r="R82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A83" s="9">
+        <v>20102</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="9">
+        <v>20</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="9">
+        <v>41</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9">
+        <v>999</v>
+      </c>
+      <c r="K83" s="9">
+        <v>1</v>
+      </c>
+      <c r="L83" s="9">
+        <v>1</v>
+      </c>
+      <c r="M83" s="9">
+        <v>1</v>
+      </c>
+      <c r="N83" s="9">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9">
+        <v>5</v>
+      </c>
+      <c r="P83" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="9">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="R83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A84" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="9">
+        <v>21</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9">
+        <v>999</v>
+      </c>
+      <c r="K84" s="9">
+        <v>1</v>
+      </c>
+      <c r="L84" s="9">
+        <v>1</v>
+      </c>
+      <c r="M84" s="9">
+        <v>1</v>
+      </c>
+      <c r="N84" s="9">
+        <v>2</v>
+      </c>
+      <c r="O84" s="9">
         <v>60</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P84" s="9">
         <v>100</v>
       </c>
-      <c r="Q65" s="9">
-        <f>P65/5</f>
+      <c r="Q84" s="9">
+        <f>P84/5</f>
         <v>20</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R84" t="s">
         <v>191</v>
       </c>
     </row>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="240">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,11 +91,6 @@
   </si>
   <si>
     <t>金疮药（小）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复10%血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,16 +174,6 @@
   </si>
   <si>
     <t>金疮药（大）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复20%血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复30%血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,18 +762,6 @@
     <t>Prefabs/Models/Npc/Npc_052</t>
   </si>
   <si>
-    <t>经验药（100%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药（200%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药（400%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【说明】
 使用之后10分钟打怪效率提升100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,10 +890,6 @@
   </si>
   <si>
     <t>【说明】
-使用之后1分钟内，提升30%的防御和魔攻</t>
-  </si>
-  <si>
-    <t>【说明】
 使用之后1分钟内，提升10%的防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,6 +926,60 @@
   <si>
     <t>【说明】
 使用之后1分钟内，提升30%的闪避</t>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复15点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复35点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复85点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复150点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复200点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升1600%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用去除身上不良状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1073,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,6 +1125,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1415,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,10 +1484,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -1486,13 +1514,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1500,14 +1528,14 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1541,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1549,14 +1577,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1590,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1598,14 +1626,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1639,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1647,16 +1675,16 @@
         <v>1000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1690,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1698,16 +1726,16 @@
         <v>1001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1741,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1749,16 +1777,16 @@
         <v>1002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1792,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1800,16 +1828,16 @@
         <v>1003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1843,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1851,16 +1879,16 @@
         <v>1004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1894,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1902,16 +1930,16 @@
         <v>1005</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1945,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1953,16 +1981,16 @@
         <v>2000</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1996,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2004,16 +2032,16 @@
         <v>2001</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2047,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2055,16 +2083,16 @@
         <v>2002</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9">
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2098,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2106,16 +2134,16 @@
         <v>2003</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2149,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2157,16 +2185,16 @@
         <v>2004</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9">
         <v>2</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2200,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2208,16 +2236,16 @@
         <v>2005</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2251,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2259,16 +2287,16 @@
         <v>3000</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2302,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2310,16 +2338,16 @@
         <v>3001</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9">
         <v>3</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2353,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2361,16 +2389,16 @@
         <v>3002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2404,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2412,16 +2440,16 @@
         <v>3003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2455,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2463,16 +2491,16 @@
         <v>3004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2506,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2514,16 +2542,16 @@
         <v>3005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2557,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2565,16 +2593,16 @@
         <v>11000</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="9">
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2606,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2614,16 +2642,16 @@
         <v>11001</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9">
         <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2655,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2663,16 +2691,16 @@
         <v>11002</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="9">
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2704,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2712,16 +2740,16 @@
         <v>11003</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="9">
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2753,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2761,16 +2789,16 @@
         <v>11004</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D27" s="9">
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2802,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2810,16 +2838,16 @@
         <v>11005</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9">
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2851,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2859,16 +2887,16 @@
         <v>12000</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" s="9">
         <v>12</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2900,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2908,16 +2936,16 @@
         <v>12001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" s="9">
         <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2949,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2957,16 +2985,16 @@
         <v>12002</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" s="9">
         <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2998,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3006,16 +3034,16 @@
         <v>12003</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" s="9">
         <v>12</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3047,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3055,16 +3083,16 @@
         <v>12004</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="9">
         <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3096,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3104,16 +3132,16 @@
         <v>12005</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" s="9">
         <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -3145,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3153,16 +3181,16 @@
         <v>13000</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="9">
         <v>13</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -3194,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3202,16 +3230,16 @@
         <v>13001</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" s="9">
         <v>13</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3243,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3251,16 +3279,16 @@
         <v>13002</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="9">
         <v>13</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -3292,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3300,16 +3328,16 @@
         <v>13003</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="9">
         <v>13</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3341,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3349,16 +3377,16 @@
         <v>13004</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="9">
         <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -3390,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3398,16 +3426,16 @@
         <v>13005</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="9">
         <v>13</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3439,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3447,16 +3475,16 @@
         <v>14000</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="9">
         <v>14</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3488,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3496,16 +3524,16 @@
         <v>14001</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="9">
         <v>14</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3537,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3545,16 +3573,16 @@
         <v>14002</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D43" s="9">
         <v>14</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -3586,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3594,16 +3622,16 @@
         <v>14003</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="9">
         <v>14</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -3635,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3643,16 +3671,16 @@
         <v>14004</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D45" s="9">
         <v>14</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3684,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3692,16 +3720,16 @@
         <v>14005</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="9">
         <v>14</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3733,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3741,16 +3769,16 @@
         <v>15000</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="9">
         <v>15</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3782,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3790,16 +3818,16 @@
         <v>15001</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" s="9">
         <v>15</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -3831,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3839,16 +3867,16 @@
         <v>15002</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D49" s="9">
         <v>15</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3880,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3888,16 +3916,16 @@
         <v>15003</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" s="9">
         <v>15</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -3929,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3937,16 +3965,16 @@
         <v>15004</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" s="9">
         <v>15</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -3978,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3986,16 +4014,16 @@
         <v>15005</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="9">
         <v>15</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4027,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4035,16 +4063,16 @@
         <v>16000</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D53" s="9">
         <v>16</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4076,7 +4104,7 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4084,16 +4112,16 @@
         <v>16001</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" s="9">
         <v>16</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -4125,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4133,16 +4161,16 @@
         <v>16002</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="9">
         <v>16</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -4174,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4182,16 +4210,16 @@
         <v>16003</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D56" s="9">
         <v>16</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4223,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4231,16 +4259,16 @@
         <v>16004</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" s="9">
         <v>16</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4272,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4280,16 +4308,16 @@
         <v>16005</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D58" s="9">
         <v>16</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -4321,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4332,13 +4360,13 @@
         <v>18</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="D59" s="9">
         <v>20</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -4372,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4380,16 +4408,16 @@
         <v>20001</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="D60" s="9">
         <v>20</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F60" s="9">
         <v>21</v>
@@ -4425,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="R60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4433,16 +4461,16 @@
         <v>20002</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="D61" s="9">
         <v>20</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F61" s="9">
         <v>41</v>
@@ -4478,7 +4506,7 @@
         <v>18</v>
       </c>
       <c r="R61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4486,16 +4514,16 @@
         <v>20003</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="D62" s="9">
         <v>20</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4529,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4537,16 +4565,16 @@
         <v>20004</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="D63" s="9">
         <v>20</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F63" s="9">
         <v>21</v>
@@ -4582,7 +4610,7 @@
         <v>6</v>
       </c>
       <c r="R63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4590,16 +4618,16 @@
         <v>20005</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D64" s="9">
         <v>20</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F64" s="9">
         <v>41</v>
@@ -4635,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="R64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4643,16 +4671,16 @@
         <v>20006</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D65" s="9">
         <v>20</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F65" s="9">
         <v>41</v>
@@ -4688,7 +4716,7 @@
         <v>18</v>
       </c>
       <c r="R65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4696,16 +4724,16 @@
         <v>20007</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D66" s="9">
         <v>20</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F66" s="9">
         <v>41</v>
@@ -4741,7 +4769,7 @@
         <v>18</v>
       </c>
       <c r="R66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4749,16 +4777,16 @@
         <v>20008</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D67" s="9">
         <v>20</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F67" s="9">
         <v>41</v>
@@ -4794,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="R67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="66" x14ac:dyDescent="0.35">
@@ -4802,16 +4830,16 @@
         <v>20009</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D68" s="9">
         <v>20</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F68" s="9">
         <v>41</v>
@@ -4847,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="R68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4855,16 +4883,16 @@
         <v>20010</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D69" s="9">
         <v>20</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -4898,7 +4926,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4906,16 +4934,16 @@
         <v>20011</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D70" s="9">
         <v>20</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4949,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="R70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4957,16 +4985,16 @@
         <v>20012</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D71" s="9">
         <v>20</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -5000,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="R71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5008,16 +5036,16 @@
         <v>20013</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D72" s="9">
         <v>20</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -5051,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="R72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5059,16 +5087,16 @@
         <v>20014</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D73" s="9">
         <v>20</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -5102,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="R73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5110,16 +5138,16 @@
         <v>20015</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D74" s="9">
         <v>20</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -5153,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="R74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5161,16 +5189,16 @@
         <v>20016</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D75" s="9">
         <v>20</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -5204,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5212,16 +5240,16 @@
         <v>20017</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D76" s="9">
         <v>20</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -5255,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5263,16 +5291,16 @@
         <v>20018</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D77" s="9">
         <v>20</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -5306,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5314,16 +5342,16 @@
         <v>20019</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D78" s="9">
         <v>20</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -5357,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5365,16 +5393,16 @@
         <v>20020</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D79" s="9">
         <v>20</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -5408,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="R79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5416,16 +5444,16 @@
         <v>20021</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D80" s="9">
         <v>20</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -5459,79 +5487,79 @@
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="33" x14ac:dyDescent="0.35">
-      <c r="A81" s="9">
-        <v>20100</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A81" s="12">
+        <v>20025</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="12">
         <v>20</v>
       </c>
-      <c r="E81" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9">
+      <c r="E81" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="12">
+        <v>1</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12">
         <v>999</v>
       </c>
-      <c r="K81" s="9">
-        <v>1</v>
-      </c>
-      <c r="L81" s="9">
-        <v>1</v>
-      </c>
-      <c r="M81" s="9">
-        <v>1</v>
-      </c>
-      <c r="N81" s="9">
-        <v>1</v>
-      </c>
-      <c r="O81" s="9">
+      <c r="K81" s="12">
+        <v>1</v>
+      </c>
+      <c r="L81" s="12">
+        <v>1</v>
+      </c>
+      <c r="M81" s="12">
+        <v>1</v>
+      </c>
+      <c r="N81" s="12">
+        <v>1</v>
+      </c>
+      <c r="O81" s="12">
         <v>5</v>
       </c>
-      <c r="P81" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q81" s="9">
-        <f>P81/5</f>
-        <v>2</v>
-      </c>
-      <c r="R81" t="s">
-        <v>191</v>
+      <c r="P81" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q81" s="12">
+        <f t="shared" ref="Q81" si="40">P81/5</f>
+        <v>18</v>
+      </c>
+      <c r="R81" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
-        <v>20101</v>
+        <v>20100</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D82" s="9">
         <v>20</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="9">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
         <v>0</v>
@@ -5556,34 +5584,34 @@
         <v>5</v>
       </c>
       <c r="P82" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q82" s="9">
-        <f t="shared" ref="Q82:Q83" si="40">P82/5</f>
-        <v>6</v>
+        <f>P82/5</f>
+        <v>2</v>
       </c>
       <c r="R82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
-        <v>20102</v>
+        <v>20101</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D83" s="9">
         <v>20</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F83" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9">
@@ -5609,33 +5637,35 @@
         <v>5</v>
       </c>
       <c r="P83" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q83" s="9">
-        <f t="shared" si="40"/>
-        <v>18</v>
+        <f t="shared" ref="Q83:Q84" si="41">P83/5</f>
+        <v>6</v>
       </c>
       <c r="R83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
-        <v>21000</v>
+        <v>20102</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="9">
         <v>20</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="9">
-        <v>21</v>
-      </c>
       <c r="E84" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F84" s="9">
+        <v>41</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <v>0</v>
@@ -5654,20 +5684,177 @@
         <v>1</v>
       </c>
       <c r="N84" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" s="9">
+        <v>5</v>
+      </c>
+      <c r="P84" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="9">
+        <f t="shared" si="41"/>
+        <v>18</v>
+      </c>
+      <c r="R84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A85" s="9">
+        <v>20103</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="9">
+        <v>20</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="9">
+        <v>41</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9">
+        <v>999</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1</v>
+      </c>
+      <c r="L85" s="9">
+        <v>1</v>
+      </c>
+      <c r="M85" s="9">
+        <v>1</v>
+      </c>
+      <c r="N85" s="9">
+        <v>1</v>
+      </c>
+      <c r="O85" s="9">
+        <v>5</v>
+      </c>
+      <c r="P85" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q85" s="9">
+        <f t="shared" ref="Q85:Q86" si="42">P85/5</f>
+        <v>18</v>
+      </c>
+      <c r="R85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A86" s="9">
+        <v>20104</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="9">
+        <v>20</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="9">
+        <v>41</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9">
+        <v>999</v>
+      </c>
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9">
+        <v>1</v>
+      </c>
+      <c r="M86" s="9">
+        <v>1</v>
+      </c>
+      <c r="N86" s="9">
+        <v>1</v>
+      </c>
+      <c r="O86" s="9">
+        <v>5</v>
+      </c>
+      <c r="P86" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q86" s="9">
+        <f t="shared" si="42"/>
+        <v>18</v>
+      </c>
+      <c r="R86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A87" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="9">
+        <v>21</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9">
+        <v>999</v>
+      </c>
+      <c r="K87" s="9">
+        <v>1</v>
+      </c>
+      <c r="L87" s="9">
+        <v>1</v>
+      </c>
+      <c r="M87" s="9">
+        <v>1</v>
+      </c>
+      <c r="N87" s="9">
+        <v>2</v>
+      </c>
+      <c r="O87" s="9">
         <v>60</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P87" s="9">
         <v>100</v>
       </c>
-      <c r="Q84" s="9">
-        <f>P84/5</f>
+      <c r="Q87" s="9">
+        <f>P87/5</f>
         <v>20</v>
       </c>
-      <c r="R84" t="s">
-        <v>191</v>
+      <c r="R87" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5705,19 +5892,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5725,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5734,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5742,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -5751,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -5759,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -5768,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5776,7 +5963,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -5785,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5793,7 +5980,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -5802,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5810,7 +5997,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -5819,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5827,7 +6014,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -5836,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5844,7 +6031,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -5853,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5861,7 +6048,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -5870,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5878,10 +6065,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5889,10 +6076,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5900,10 +6087,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5911,10 +6098,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5922,10 +6109,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5956,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5964,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5972,7 +6159,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
@@ -5980,7 +6167,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5988,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -5996,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -6004,7 +6191,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6012,7 +6199,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6020,7 +6207,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6028,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6036,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -6044,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -6052,7 +6239,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6060,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
@@ -6068,7 +6255,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6076,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -6084,7 +6271,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -6092,7 +6279,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="236">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -917,10 +917,6 @@
   </si>
   <si>
     <t>【说明】
-使用之后1分钟内，提升30%的防御和魔攻</t>
-  </si>
-  <si>
-    <t>【说明】
 使用之后1分钟内，提升10%的防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,6 +953,14 @@
   <si>
     <t>【说明】
 使用之后1分钟内，提升30%的闪避</t>
+  </si>
+  <si>
+    <t>掉落道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落后拾取的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1073,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,6 +1106,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1417,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1504,7 +1509,7 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>187</v>
@@ -1553,7 +1558,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>187</v>
@@ -1602,7 +1607,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="9">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>187</v>
@@ -5011,7 +5016,7 @@
         <v>213</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="9">
         <v>20</v>
@@ -5062,7 +5067,7 @@
         <v>214</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="9">
         <v>20</v>
@@ -5113,7 +5118,7 @@
         <v>215</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="9">
         <v>20</v>
@@ -5164,7 +5169,7 @@
         <v>216</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="9">
         <v>20</v>
@@ -5215,7 +5220,7 @@
         <v>217</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="9">
         <v>20</v>
@@ -5266,7 +5271,7 @@
         <v>218</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="9">
         <v>20</v>
@@ -5317,7 +5322,7 @@
         <v>219</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="9">
         <v>20</v>
@@ -5368,7 +5373,7 @@
         <v>220</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="9">
         <v>20</v>
@@ -5419,7 +5424,7 @@
         <v>221</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="9">
         <v>20</v>
@@ -5684,13 +5689,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5926,6 +5931,17 @@
       </c>
       <c r="E15" s="7" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>31</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="23250" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="道具类型" sheetId="4" r:id="rId2"/>
-    <sheet name="字段说明" sheetId="2" r:id="rId3"/>
+    <sheet name="冷却类型" sheetId="5" r:id="rId3"/>
+    <sheet name="字段说明" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="243">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -960,6 +961,34 @@
   </si>
   <si>
     <t>掉落后拾取的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,6 +1136,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1422,8 +1455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4367,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P59" s="9">
         <v>10</v>
@@ -4420,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P60" s="9">
         <v>30</v>
@@ -4473,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P61" s="9">
         <v>90</v>
@@ -4524,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P62" s="9">
         <v>10</v>
@@ -4577,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P63" s="9">
         <v>30</v>
@@ -4627,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="N64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P64" s="9">
         <v>90</v>
@@ -4680,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="N65" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P65" s="9">
         <v>90</v>
@@ -4733,10 +4767,10 @@
         <v>1</v>
       </c>
       <c r="N66" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P66" s="9">
         <v>90</v>
@@ -4786,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="N67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P67" s="9">
         <v>90</v>
@@ -4839,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="N68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P68" s="9">
         <v>90</v>
@@ -4890,10 +4924,10 @@
         <v>1</v>
       </c>
       <c r="N69" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P69" s="9">
         <v>10</v>
@@ -4941,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="N70" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P70" s="9">
         <v>10</v>
@@ -4992,10 +5026,10 @@
         <v>1</v>
       </c>
       <c r="N71" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P71" s="9">
         <v>10</v>
@@ -5043,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="N72" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P72" s="9">
         <v>10</v>
@@ -5094,10 +5128,10 @@
         <v>1</v>
       </c>
       <c r="N73" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P73" s="9">
         <v>10</v>
@@ -5145,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="N74" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P74" s="9">
         <v>10</v>
@@ -5196,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="N75" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P75" s="9">
         <v>10</v>
@@ -5247,10 +5281,10 @@
         <v>1</v>
       </c>
       <c r="N76" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P76" s="9">
         <v>10</v>
@@ -5298,10 +5332,10 @@
         <v>1</v>
       </c>
       <c r="N77" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P77" s="9">
         <v>10</v>
@@ -5349,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="N78" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P78" s="9">
         <v>10</v>
@@ -5400,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="N79" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P79" s="9">
         <v>10</v>
@@ -5451,10 +5485,10 @@
         <v>1</v>
       </c>
       <c r="N80" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P80" s="9">
         <v>10</v>
@@ -5502,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="N81" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P81" s="9">
         <v>10</v>
@@ -5555,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="N82" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P82" s="9">
         <v>30</v>
@@ -5608,10 +5642,10 @@
         <v>1</v>
       </c>
       <c r="N83" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83" s="9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P83" s="9">
         <v>90</v>
@@ -5659,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O84" s="9">
         <v>60</v>
@@ -5691,7 +5725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5954,6 +5988,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/table/道具表.xlsx
+++ b/doc/table/道具表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="249">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,11 +92,6 @@
   </si>
   <si>
     <t>金疮药（小）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复10%血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,16 +175,6 @@
   </si>
   <si>
     <t>金疮药（大）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复20%血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
-使用之后恢复30%血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -834,12 +819,6 @@
   </si>
   <si>
     <t>【说明】
-1.获得一个总量为50000点的血池
-2.每5秒恢复500点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【说明】
 1.获得一个总量为250000点的血池
 2.每5秒恢复1000点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -989,6 +968,55 @@
   </si>
   <si>
     <t>回城卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+1.获得一个总量为50000点的血池
+2.每5秒恢复500点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复15点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复35点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复85点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复150点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+每秒恢复200点HP，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药（800%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药（1600%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后10分钟打怪效率提升800%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【说明】
+使用之后10分钟打怪效率提升1600%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1167,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1453,11 +1484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O85" sqref="O85"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -1525,13 +1556,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1539,14 +1570,14 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9">
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1580,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1588,14 +1619,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1629,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1637,14 +1668,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="9">
         <v>31</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1678,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1686,16 +1717,16 @@
         <v>1000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1729,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1737,16 +1768,16 @@
         <v>1001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1780,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1788,16 +1819,16 @@
         <v>1002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1831,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1839,16 +1870,16 @@
         <v>1003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1882,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1890,16 +1921,16 @@
         <v>1004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1933,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1941,16 +1972,16 @@
         <v>1005</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1984,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -1992,16 +2023,16 @@
         <v>2000</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2035,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2043,16 +2074,16 @@
         <v>2001</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2086,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2094,16 +2125,16 @@
         <v>2002</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9">
         <v>2</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2137,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2145,16 +2176,16 @@
         <v>2003</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9">
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2188,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2196,16 +2227,16 @@
         <v>2004</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9">
         <v>2</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2239,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2247,16 +2278,16 @@
         <v>2005</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2290,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2298,16 +2329,16 @@
         <v>3000</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="9">
         <v>3</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2341,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2349,16 +2380,16 @@
         <v>3001</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9">
         <v>3</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2392,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2400,16 +2431,16 @@
         <v>3002</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2443,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2451,16 +2482,16 @@
         <v>3003</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2494,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2502,16 +2533,16 @@
         <v>3004</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2545,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2553,16 +2584,16 @@
         <v>3005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2596,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2604,16 +2635,16 @@
         <v>11000</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="9">
         <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2645,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2653,16 +2684,16 @@
         <v>11001</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9">
         <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2694,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2702,16 +2733,16 @@
         <v>11002</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="9">
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2743,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2751,16 +2782,16 @@
         <v>11003</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D26" s="9">
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -2792,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2800,16 +2831,16 @@
         <v>11004</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D27" s="9">
         <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2841,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2849,16 +2880,16 @@
         <v>11005</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9">
         <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -2890,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2898,16 +2929,16 @@
         <v>12000</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" s="9">
         <v>12</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -2939,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2947,16 +2978,16 @@
         <v>12001</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" s="9">
         <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -2988,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -2996,16 +3027,16 @@
         <v>12002</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D31" s="9">
         <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3037,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3045,16 +3076,16 @@
         <v>12003</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D32" s="9">
         <v>12</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3086,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3094,16 +3125,16 @@
         <v>12004</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" s="9">
         <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3135,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3143,16 +3174,16 @@
         <v>12005</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" s="9">
         <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -3184,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3192,16 +3223,16 @@
         <v>13000</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="9">
         <v>13</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -3233,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3241,16 +3272,16 @@
         <v>13001</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" s="9">
         <v>13</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3282,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3290,16 +3321,16 @@
         <v>13002</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="9">
         <v>13</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -3331,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3339,16 +3370,16 @@
         <v>13003</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="9">
         <v>13</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3380,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3388,16 +3419,16 @@
         <v>13004</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="9">
         <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -3429,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3437,16 +3468,16 @@
         <v>13005</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="9">
         <v>13</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3478,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3486,16 +3517,16 @@
         <v>14000</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="9">
         <v>14</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3527,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3535,16 +3566,16 @@
         <v>14001</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="9">
         <v>14</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3576,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3584,16 +3615,16 @@
         <v>14002</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D43" s="9">
         <v>14</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -3625,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3633,16 +3664,16 @@
         <v>14003</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D44" s="9">
         <v>14</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -3674,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3682,16 +3713,16 @@
         <v>14004</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D45" s="9">
         <v>14</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3723,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3731,16 +3762,16 @@
         <v>14005</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="9">
         <v>14</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3772,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3780,16 +3811,16 @@
         <v>15000</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="9">
         <v>15</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3821,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3829,16 +3860,16 @@
         <v>15001</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" s="9">
         <v>15</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -3870,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3878,16 +3909,16 @@
         <v>15002</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D49" s="9">
         <v>15</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3919,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="R49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3927,16 +3958,16 @@
         <v>15003</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" s="9">
         <v>15</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -3968,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="R50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -3976,16 +4007,16 @@
         <v>15004</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" s="9">
         <v>15</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -4017,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4025,16 +4056,16 @@
         <v>15005</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="9">
         <v>15</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4066,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4074,16 +4105,16 @@
         <v>16000</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D53" s="9">
         <v>16</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4115,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4123,16 +4154,16 @@
         <v>16001</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D54" s="9">
         <v>16</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -4164,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4172,16 +4203,16 @@
         <v>16002</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D55" s="9">
         <v>16</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -4213,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="R55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4221,16 +4252,16 @@
         <v>16003</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D56" s="9">
         <v>16</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4262,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4270,16 +4301,16 @@
         <v>16004</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D57" s="9">
         <v>16</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4311,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4319,16 +4350,16 @@
         <v>16005</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D58" s="9">
         <v>16</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -4360,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="R58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4370,14 +4401,14 @@
       <c r="B59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>19</v>
+      <c r="C59" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="D59" s="9">
         <v>20</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -4411,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4419,16 +4450,16 @@
         <v>20001</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D60" s="9">
         <v>20</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F60" s="9">
         <v>21</v>
@@ -4464,7 +4495,7 @@
         <v>6</v>
       </c>
       <c r="R60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4472,16 +4503,16 @@
         <v>20002</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="D61" s="9">
         <v>20</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F61" s="9">
         <v>41</v>
@@ -4517,7 +4548,7 @@
         <v>18</v>
       </c>
       <c r="R61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4525,16 +4556,16 @@
         <v>20003</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="D62" s="9">
         <v>20</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4568,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="R62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -4576,16 +4607,16 @@
         <v>20004</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="D63" s="9">
         <v>20</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F63" s="9">
         <v>21</v>
@@ -4621,7 +4652,7 @@
         <v>6</v>
       </c>
       <c r="R63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4629,16 +4660,16 @@
         <v>20005</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D64" s="9">
         <v>20</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F64" s="9">
         <v>41</v>
@@ -4674,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="R64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4682,16 +4713,16 @@
         <v>20006</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D65" s="9">
         <v>20</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F65" s="9">
         <v>41</v>
@@ -4727,7 +4758,7 @@
         <v>18</v>
       </c>
       <c r="R65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4735,16 +4766,16 @@
         <v>20007</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D66" s="9">
         <v>20</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F66" s="9">
         <v>41</v>
@@ -4780,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="R66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4788,16 +4819,16 @@
         <v>20008</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D67" s="9">
         <v>20</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F67" s="9">
         <v>41</v>
@@ -4833,7 +4864,7 @@
         <v>18</v>
       </c>
       <c r="R67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="66" x14ac:dyDescent="0.35">
@@ -4841,16 +4872,16 @@
         <v>20009</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D68" s="9">
         <v>20</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F68" s="9">
         <v>41</v>
@@ -4886,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="R68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4894,16 +4925,16 @@
         <v>20010</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69" s="9">
         <v>20</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -4937,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4945,16 +4976,16 @@
         <v>20011</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70" s="9">
         <v>20</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4988,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="R70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
@@ -4996,16 +5027,16 @@
         <v>20012</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D71" s="9">
         <v>20</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -5039,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="R71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5047,16 +5078,16 @@
         <v>20013</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D72" s="9">
         <v>20</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -5090,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="R72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5098,16 +5129,16 @@
         <v>20014</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D73" s="9">
         <v>20</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -5141,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="R73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5149,16 +5180,16 @@
         <v>20015</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D74" s="9">
         <v>20</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -5192,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="R74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5200,16 +5231,16 @@
         <v>20016</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D75" s="9">
         <v>20</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -5243,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5251,16 +5282,16 @@
         <v>20017</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D76" s="9">
         <v>20</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -5294,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="R76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5302,16 +5333,16 @@
         <v>20018</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D77" s="9">
         <v>20</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -5345,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="R77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5353,16 +5384,16 @@
         <v>20019</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D78" s="9">
         <v>20</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -5396,7 +5427,7 @@
         <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5404,16 +5435,16 @@
         <v>20020</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D79" s="9">
         <v>20</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -5447,7 +5478,7 @@
         <v>2</v>
       </c>
       <c r="R79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5455,16 +5486,16 @@
         <v>20021</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="9">
         <v>20</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -5498,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="R80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5506,16 +5537,16 @@
         <v>20100</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="D81" s="9">
         <v>20</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -5549,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="R81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5557,16 +5588,16 @@
         <v>20101</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="D82" s="9">
         <v>20</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F82" s="9">
         <v>21</v>
@@ -5602,7 +5633,7 @@
         <v>6</v>
       </c>
       <c r="R82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="33" x14ac:dyDescent="0.35">
@@ -5610,16 +5641,16 @@
         <v>20102</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="D83" s="9">
         <v>20</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F83" s="9">
         <v>41</v>
@@ -5655,26 +5686,28 @@
         <v>18</v>
       </c>
       <c r="R83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
-        <v>21000</v>
+        <v>20103</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="9">
         <v>20</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="9">
-        <v>21</v>
-      </c>
       <c r="E84" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F84" s="9">
+        <v>41</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9">
         <v>0</v>
@@ -5693,20 +5726,124 @@
         <v>1</v>
       </c>
       <c r="N84" s="9">
+        <v>2</v>
+      </c>
+      <c r="O84" s="9">
+        <v>30</v>
+      </c>
+      <c r="P84" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="9">
+        <f t="shared" ref="Q84:Q85" si="41">P84/5</f>
+        <v>18</v>
+      </c>
+      <c r="R84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="9">
+        <v>20104</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="9">
+        <v>20</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="9">
+        <v>41</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9">
+        <v>999</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1</v>
+      </c>
+      <c r="L85" s="9">
+        <v>1</v>
+      </c>
+      <c r="M85" s="9">
+        <v>1</v>
+      </c>
+      <c r="N85" s="9">
+        <v>2</v>
+      </c>
+      <c r="O85" s="9">
+        <v>30</v>
+      </c>
+      <c r="P85" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q85" s="9">
+        <f t="shared" si="41"/>
+        <v>18</v>
+      </c>
+      <c r="R85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="33" x14ac:dyDescent="0.35">
+      <c r="A86" s="9">
+        <v>21000</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="9">
+        <v>21</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9">
+        <v>999</v>
+      </c>
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+      <c r="L86" s="9">
+        <v>1</v>
+      </c>
+      <c r="M86" s="9">
+        <v>1</v>
+      </c>
+      <c r="N86" s="9">
         <v>5</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O86" s="9">
         <v>60</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P86" s="9">
         <v>100</v>
       </c>
-      <c r="Q84" s="9">
-        <f>P84/5</f>
+      <c r="Q86" s="9">
+        <f>P86/5</f>
         <v>20</v>
       </c>
-      <c r="R84" t="s">
-        <v>191</v>
+      <c r="R86" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5744,19 +5881,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5764,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5773,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5781,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -5790,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -5798,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -5807,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -5815,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -5824,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -5832,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -5841,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -5849,7 +5986,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -5858,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -5866,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -5875,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5883,7 +6020,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -5892,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -5900,7 +6037,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -5909,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5917,10 +6054,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -5928,10 +6065,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -5939,10 +6076,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -5950,10 +6087,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -5961,10 +6098,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -5972,10 +6109,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5998,10 +6135,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6009,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -6017,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6025,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -6033,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -6041,7 +6178,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -6078,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -6086,7 +6223,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
@@ -6094,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -6102,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -6110,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -6118,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6126,7 +6263,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -6134,7 +6271,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6142,7 +6279,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6150,7 +6287,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -6158,7 +6295,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.15">
@@ -6166,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6174,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.15">
@@ -6182,7 +6319,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6190,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -6198,7 +6335,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -6206,7 +6343,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
